--- a/doc/anchor_tags/主播标签.xlsx
+++ b/doc/anchor_tags/主播标签.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\xjl_etl\doc\anchor_tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C867564-E6E3-4B9D-969E-D2751D5DAF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968408D-15B8-4C41-91FB-46F9C4B956D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上月开播天数&gt;=20天且累计开播时长&gt;=60小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流水分档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,28 +87,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上月流水为0万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月流水为50万以上（包含50万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月流水为10-50万（包含10万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月流水为3-10万（包含3万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月流水为0-3万（不包含0万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过平台后台（爬虫）数据（最小注册时间、最小开播时间）结合通过运营同事收集的数据（注册时间、开播时间），得到最小注册时间和最小开播时间；情况一：最小注册时间和最小开播时间不为空，通过最小开播时间和数据时间（180天）判断；情况2：若其中一个为空则取另一个最小时间判断；情况3：两个最小时间都为空，则为“未知”
-月汇总数据中，则以最小时间和月最后一天来判断（当月也一样）</t>
+月汇总数据中，则以最小时间和月最后一天来判断（当月为t-1天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月开播天数&gt;=20天且累计开播时长&gt;=60小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月流水为0-3万（不包含0万）</t>
+  </si>
+  <si>
+    <t>当月流水为3-10万（包含3万）</t>
+  </si>
+  <si>
+    <t>当月流水为10-50万（包含10万）</t>
+  </si>
+  <si>
+    <t>当月流水为50万以上（包含50万）</t>
+  </si>
+  <si>
+    <t>当月流水为0万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,54 +555,54 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
